--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_10-57.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_10-57.xlsx
@@ -65,10 +65,19 @@
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
+    <t>IS IS بقدونس كرفس</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>XORAXON 1GM I.M. VIAL</t>
@@ -876,17 +885,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -902,17 +911,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -928,17 +937,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -946,7 +955,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -954,13 +963,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
@@ -972,7 +981,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -980,17 +989,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -998,7 +1007,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1006,13 +1015,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
@@ -1024,7 +1033,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1032,51 +1041,103 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5" customHeight="1">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c t="s" r="B18" s="7">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c t="s" r="H18" s="8">
+        <v>30</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9">
+        <v>20</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="25.5" customHeight="1">
-      <c r="K18" s="11">
-        <v>580.5</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" ht="17.25" customHeight="1">
-      <c t="s" r="A19" s="12">
-        <v>30</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c t="s" r="F19" s="13">
+    <row r="19" ht="24.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c t="s" r="B19" s="7">
         <v>31</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c t="s" r="I19" s="15">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c t="s" r="H19" s="8">
         <v>32</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9">
+        <v>15</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="26.25" customHeight="1">
+      <c r="K20" s="11">
+        <v>646.5</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="12">
+        <v>33</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c t="s" r="F21" s="13">
+        <v>34</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c t="s" r="I21" s="15">
+        <v>35</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="59">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1126,10 +1187,16 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:N21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
